--- a/lop.xlsx
+++ b/lop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\web-nc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E213254-E261-41F9-B080-6197BA2CD28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8EE765-4E6E-449D-91A6-D95503CC56D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/lop.xlsx
+++ b/lop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\web-nc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8EE765-4E6E-449D-91A6-D95503CC56D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDE88CA-9915-44E3-9FF8-34D30C0D8FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11325" yWindow="3855" windowWidth="17280" windowHeight="8925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
